--- a/config/testcases/Report_BE.RS02WordMachine(Clone).xlsx
+++ b/config/testcases/Report_BE.RS02WordMachine(Clone).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
   <si>
     <t>TCID</t>
   </si>
@@ -187,7 +187,7 @@
     <t>waitForObjectContain</t>
   </si>
   <si>
-    <t>FxSource,AudioSource,clip,SFX bang chuyen</t>
+    <t>MachineCore</t>
   </si>
   <si>
     <t>Sleep</t>
@@ -197,15 +197,6 @@
   </si>
   <si>
     <t>second,1</t>
-  </si>
-  <si>
-    <t>getAudioSource</t>
-  </si>
-  <si>
-    <t>FxSource</t>
-  </si>
-  <si>
-    <t>$.turn[0].word[?(@.type=="question")].audio[*].file_path</t>
   </si>
   <si>
     <t>Click skip game</t>
@@ -450,10 +441,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1406,7 +1397,7 @@
       <c r="D9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="32" t="s">
         <v>55</v>
       </c>
       <c r="F9" s="25"/>
@@ -1440,29 +1431,23 @@
       <c r="B10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="27"/>
-      <c r="K10" s="28" t="s">
-        <v>61</v>
-      </c>
+      <c r="K10" s="28"/>
       <c r="L10" s="27"/>
       <c r="M10" s="29"/>
       <c r="N10" s="27"/>
@@ -1480,20 +1465,20 @@
       <c r="Z10" s="27"/>
     </row>
     <row r="11" ht="34.5" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>62</v>
+      <c r="C11" s="33" t="s">
+        <v>59</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="30"/>
       <c r="G11" s="37" t="s">
@@ -1520,20 +1505,20 @@
       <c r="Z11" s="27"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="31" t="s">
@@ -1646,13 +1631,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -7089,9 +7074,18 @@
       <c r="Z142" s="44"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="44"/>
-      <c r="B143" s="44"/>
-      <c r="C143" s="44"/>
+      <c r="A143" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"clickLesson")</f>
+        <v>clickLesson</v>
+      </c>
+      <c r="B143" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property")</f>
+        <v>element,component,property</v>
+      </c>
+      <c r="C143" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D143" s="44"/>
       <c r="E143" s="44"/>
       <c r="F143" s="44"/>
@@ -7117,9 +7111,15 @@
       <c r="Z143" s="44"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="44"/>
+      <c r="A144" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMapMgo")</f>
+        <v>swipeMapMgo</v>
+      </c>
       <c r="B144" s="44"/>
-      <c r="C144" s="44"/>
+      <c r="C144" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D144" s="44"/>
       <c r="E144" s="44"/>
       <c r="F144" s="44"/>
@@ -7145,9 +7145,18 @@
       <c r="Z144" s="44"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="44"/>
+      <c r="A145" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"verifyFlow")</f>
+        <v>verifyFlow</v>
+      </c>
+      <c r="B145" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"file expected")</f>
+        <v>file expected</v>
+      </c>
+      <c r="C145" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D145" s="44"/>
       <c r="E145" s="44"/>
       <c r="F145" s="44"/>
@@ -7173,9 +7182,15 @@
       <c r="Z145" s="44"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="44"/>
+      <c r="A146" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableFileWhichCondition")</f>
+        <v>setVariableFileWhichCondition</v>
+      </c>
       <c r="B146" s="44"/>
-      <c r="C146" s="44"/>
+      <c r="C146" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D146" s="44"/>
       <c r="E146" s="44"/>
       <c r="F146" s="44"/>
@@ -7201,7 +7216,10 @@
       <c r="Z146" s="44"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="44"/>
+      <c r="A147" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfStringFile")</f>
+        <v>setVariableTypeOfStringFile</v>
+      </c>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
       <c r="D147" s="44"/>
@@ -7229,7 +7247,10 @@
       <c r="Z147" s="44"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="44"/>
+      <c r="A148" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"setVariableTypeOfIntFile")</f>
+        <v>setVariableTypeOfIntFile</v>
+      </c>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
       <c r="D148" s="44"/>
@@ -7257,7 +7278,10 @@
       <c r="Z148" s="44"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="44"/>
+      <c r="A149" s="44" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getPath")</f>
+        <v>getPath</v>
+      </c>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
       <c r="D149" s="44"/>
@@ -31137,10 +31161,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
